--- a/美国雅思一览表.xlsx
+++ b/美国雅思一览表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-zichuanliu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4403D6BF-40BA-4E21-B6F1-C5D23EB794EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBC153-705F-42E0-A777-210EE0611E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,93 +281,94 @@
     <t>https://gsas.nyu.edu/admissions/arc/test-scores.html#:~:text=For%20the%20TOEFL%2FIELTS%2C%20we,%2C%20Requirements%2C%20and%20Deadlines%20pages.</t>
   </si>
   <si>
+    <t>https://www.cs.utexas.edu/faq/71577#</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>https://www.cs.washington.edu/academics/phd/admissions/how-to-apply</t>
+  </si>
+  <si>
+    <t>University of Michigan </t>
+  </si>
+  <si>
+    <t>https://cee.engin.umich.edu/graduate-studies/admissions-information/</t>
+  </si>
+  <si>
+    <t>Cornell University </t>
+  </si>
+  <si>
+    <t>https://gradschool.cornell.edu/admissions/prepare/english-language-proficiency-requirement-2/</t>
+  </si>
+  <si>
+    <t>University of Massachusetts Amherst</t>
+  </si>
+  <si>
+    <t>https://www.umass.edu/graduate/apply/international-applicants</t>
+  </si>
+  <si>
+    <t> Univ. of California - Berkeley</t>
+  </si>
+  <si>
+    <t>https://ischoolonline.berkeley.edu/admissions/international-admissions/</t>
+  </si>
+  <si>
+    <t>Univ. of California - Los Angeles</t>
+  </si>
+  <si>
+    <t>https://grad.ucla.edu/admissions/english-requirements/#:~:text=Your%20IELTS%20Academic%20overall%20band,to%20graduate%20programs%20at%20UCLA.</t>
+  </si>
+  <si>
+    <t> Georgia Institute of Technology </t>
+  </si>
+  <si>
+    <t>stanford</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/phd-cs-admissions-requirements</t>
+  </si>
+  <si>
+    <t>https://gradadmissions.stanford.edu/apply/test-scores</t>
+  </si>
+  <si>
+    <t>Univ. of California - San Diego</t>
+  </si>
+  <si>
+    <t>https://cse.ucsd.edu/graduate/admissions</t>
+  </si>
+  <si>
+    <t> University of Maryland - College Park </t>
+  </si>
+  <si>
+    <t>https://gradschool.umd.edu/admissions/english-language-proficiency-requirements</t>
+  </si>
+  <si>
+    <t> Univ. of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>https://cs.illinois.edu/academics/graduate/graduate-forms-advising-resources/epi-exam-requirements#</t>
+  </si>
+  <si>
+    <t> Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>https://www.cs.cmu.edu/academics/faq</t>
+  </si>
+  <si>
     <t>University of Texas at Austin </t>
-  </si>
-  <si>
-    <t>https://www.cs.utexas.edu/faq/71577#</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
-    <t>https://www.cs.washington.edu/academics/phd/admissions/how-to-apply</t>
-  </si>
-  <si>
-    <t>University of Michigan </t>
-  </si>
-  <si>
-    <t>https://cee.engin.umich.edu/graduate-studies/admissions-information/</t>
-  </si>
-  <si>
-    <t>Cornell University </t>
-  </si>
-  <si>
-    <t>https://gradschool.cornell.edu/admissions/prepare/english-language-proficiency-requirement-2/</t>
-  </si>
-  <si>
-    <t>University of Massachusetts Amherst</t>
-  </si>
-  <si>
-    <t>https://www.umass.edu/graduate/apply/international-applicants</t>
-  </si>
-  <si>
-    <t> Univ. of California - Berkeley</t>
-  </si>
-  <si>
-    <t>https://ischoolonline.berkeley.edu/admissions/international-admissions/</t>
-  </si>
-  <si>
-    <t>Univ. of California - Los Angeles</t>
-  </si>
-  <si>
-    <t>https://grad.ucla.edu/admissions/english-requirements/#:~:text=Your%20IELTS%20Academic%20overall%20band,to%20graduate%20programs%20at%20UCLA.</t>
-  </si>
-  <si>
-    <t> Georgia Institute of Technology </t>
-  </si>
-  <si>
-    <t>stanford</t>
-  </si>
-  <si>
-    <t>https://www.cc.gatech.edu/phd-cs-admissions-requirements</t>
-  </si>
-  <si>
-    <t>https://gradadmissions.stanford.edu/apply/test-scores</t>
-  </si>
-  <si>
-    <t>Univ. of California - San Diego</t>
-  </si>
-  <si>
-    <t>https://cse.ucsd.edu/graduate/admissions</t>
-  </si>
-  <si>
-    <t> University of Maryland - College Park </t>
-  </si>
-  <si>
-    <t>https://gradschool.umd.edu/admissions/english-language-proficiency-requirements</t>
-  </si>
-  <si>
-    <t> Univ. of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>https://cs.illinois.edu/academics/graduate/graduate-forms-advising-resources/epi-exam-requirements#</t>
-  </si>
-  <si>
-    <t> Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>https://www.cs.cmu.edu/academics/faq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -394,6 +395,13 @@
       <color rgb="FF040C28"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -704,13 +712,13 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -750,7 +758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -767,7 +775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -787,7 +795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -804,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -838,7 +846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -855,7 +863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -875,12 +883,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
       </c>
       <c r="C10">
         <v>6.5</v>
@@ -892,12 +900,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
       </c>
       <c r="C11">
         <v>6.5</v>
@@ -909,12 +917,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
       </c>
       <c r="C12">
         <v>6.5</v>
@@ -932,7 +940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -963,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1106,8 +1114,11 @@
       <c r="D23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1121,7 +1132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1256,7 +1267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -1315,12 +1326,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1329,12 +1340,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1343,12 +1354,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1357,12 +1368,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1371,12 +1382,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" t="s">
-        <v>100</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1385,12 +1396,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
         <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1402,12 +1413,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1419,12 +1430,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>7.5</v>
@@ -1433,18 +1444,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
         <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -1477,10 +1488,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>100</v>
@@ -1490,6 +1501,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
     <sortCondition ref="C1:C49"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/美国雅思一览表.xlsx
+++ b/美国雅思一览表.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBC153-705F-42E0-A777-210EE0611E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC44985-0A48-47B2-9E80-81DBD3ABBFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$49</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -712,7 +715,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -746,30 +749,30 @@
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>47</v>
@@ -777,19 +780,16 @@
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>6.5</v>
       </c>
       <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>60</v>
@@ -797,16 +797,16 @@
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>47</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -825,22 +825,25 @@
       <c r="D6">
         <v>80</v>
       </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
       <c r="I6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
+    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>6.5</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>58</v>
@@ -885,16 +888,22 @@
     </row>
     <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>6.5</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>115</v>
       </c>
       <c r="I10">
         <v>32</v>
@@ -902,16 +911,19 @@
     </row>
     <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>115</v>
       </c>
       <c r="I11">
         <v>21</v>
@@ -919,194 +931,182 @@
     </row>
     <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>80</v>
       </c>
-      <c r="E12">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>115</v>
-      </c>
       <c r="I12">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+    <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D15">
-        <v>86</v>
-      </c>
-      <c r="F15">
-        <v>120</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="F17">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D21">
-        <v>92</v>
-      </c>
-      <c r="F21">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1114,22 +1114,22 @@
       <c r="D23">
         <v>90</v>
       </c>
-      <c r="F23">
-        <v>115</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1148,27 +1148,24 @@
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>80</v>
-      </c>
-      <c r="F26">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1176,27 +1173,30 @@
       <c r="D27">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1204,106 +1204,106 @@
       <c r="D29">
         <v>90</v>
       </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30">
-        <v>92</v>
-      </c>
-      <c r="F30">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>7</v>
       </c>
       <c r="D32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1311,13 +1311,16 @@
       <c r="D36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1326,141 +1329,144 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="D39">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D42">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D43">
-        <v>96</v>
-      </c>
-      <c r="E43">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="F44">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>7.5</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -1468,38 +1474,36 @@
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="48" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="D1:D49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
-    <sortCondition ref="C1:C49"/>
+    <sortCondition ref="D1:D49"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/美国雅思一览表.xlsx
+++ b/美国雅思一览表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC44985-0A48-47B2-9E80-81DBD3ABBFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCEDB8-CF57-43C4-8ABC-461CE7E89345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Harvard University</t>
   </si>
   <si>
-    <t>https://gsas.harvard.edu/policy/english-language-proficiency</t>
-  </si>
-  <si>
     <t>Washington University in St. Louis</t>
   </si>
   <si>
@@ -362,12 +359,16 @@
     <t>University of Texas at Austin </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>https://gsas.harvard.edu/policy/english-language-proficiency</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +407,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,17 +433,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,10 +761,10 @@
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -780,10 +792,10 @@
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>6.5</v>
@@ -797,10 +809,10 @@
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -834,10 +846,10 @@
     </row>
     <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
       </c>
       <c r="C7">
         <v>6.5</v>
@@ -851,10 +863,10 @@
     </row>
     <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
       <c r="C8">
         <v>6.5</v>
@@ -868,10 +880,10 @@
     </row>
     <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
       </c>
       <c r="C9">
         <v>6.5</v>
@@ -888,10 +900,10 @@
     </row>
     <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
       </c>
       <c r="C10">
         <v>6.5</v>
@@ -931,10 +943,10 @@
     </row>
     <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -948,10 +960,10 @@
     </row>
     <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -962,10 +974,10 @@
     </row>
     <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -979,10 +991,10 @@
     </row>
     <row r="15" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
       </c>
       <c r="C15">
         <v>6.5</v>
@@ -1013,10 +1025,10 @@
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1047,10 +1059,10 @@
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1089,10 +1101,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
       </c>
       <c r="C22">
         <v>6.5</v>
@@ -1117,10 +1129,10 @@
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1134,10 +1146,10 @@
     </row>
     <row r="25" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -1148,10 +1160,10 @@
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -1162,10 +1174,10 @@
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1179,10 +1191,10 @@
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -1193,10 +1205,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1207,10 +1219,10 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -1221,10 +1233,10 @@
     </row>
     <row r="31" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1238,10 +1250,10 @@
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -1255,10 +1267,10 @@
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -1269,10 +1281,10 @@
     </row>
     <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1283,10 +1295,10 @@
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1317,10 +1329,10 @@
     </row>
     <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1331,10 +1343,10 @@
     </row>
     <row r="38" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1343,15 +1355,15 @@
         <v>100</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1362,10 +1374,10 @@
     </row>
     <row r="40" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1376,10 +1388,10 @@
     </row>
     <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
         <v>104</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1393,10 +1405,10 @@
     </row>
     <row r="42" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42">
         <v>7.5</v>
@@ -1407,10 +1419,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>100</v>
@@ -1418,10 +1430,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1479,8 +1491,8 @@
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
-        <v>35</v>
+      <c r="B48" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1491,10 +1503,10 @@
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -1506,8 +1518,11 @@
     <sortCondition ref="D1:D49"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B48" r:id="rId1" xr:uid="{508CC060-7500-4192-B127-4DF06E4121E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
